--- a/CV_Elio.xlsx
+++ b/CV_Elio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="5" r:id="rId1"/>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Surface monitoring of Hontomín CO2 injection site (Spain).</t>
-  </si>
-  <si>
-    <t>Research the gas exchange (e.g. CO2</t>
   </si>
   <si>
     <t>Research the applicability of radiometric measurements to characterize soils contaminated by hydrocarbons and industrials dissolvent.</t>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>NordForsk interdisciplinary research projects</t>
+  </si>
+  <si>
+    <t>Research the gas exchange (e.g. CO2, CH4, Rn= betwenn soil and atmosphere.</t>
   </si>
 </sst>
 </file>
@@ -941,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -955,13 +955,13 @@
         <v>2013</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -969,13 +969,13 @@
         <v>2009</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,13 +983,13 @@
         <v>2005</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>10</v>
@@ -1043,10 +1043,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>28</v>
@@ -1060,10 +1060,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
@@ -1071,16 +1071,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>30</v>
@@ -1094,10 +1094,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>31</v>
@@ -1105,16 +1105,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
@@ -1128,13 +1128,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>17</v>
@@ -1145,36 +1145,36 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>18</v>
@@ -1222,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>10</v>
@@ -1230,47 +1230,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1311,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1328,16 +1328,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1345,19 +1345,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1365,19 +1365,19 @@
         <v>2019</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1385,19 +1385,19 @@
         <v>2019</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1405,19 +1405,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1425,19 +1425,19 @@
         <v>2018</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1445,19 +1445,19 @@
         <v>2017</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1465,19 +1465,19 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,19 +1485,19 @@
         <v>2015</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1505,19 +1505,19 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1525,19 +1525,19 @@
         <v>2015</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1545,19 +1545,19 @@
         <v>2014</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,19 +1565,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -1634,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1651,10 +1651,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1668,10 +1668,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -1717,10 +1717,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,13 +1728,13 @@
         <v>2016</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,13 +1742,13 @@
         <v>2014</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1804,13 +1804,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -1818,16 +1818,16 @@
         <v>2017</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1835,16 +1835,16 @@
         <v>2017</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1852,16 +1852,16 @@
         <v>2017</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1869,16 +1869,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1886,16 +1886,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,16 +1903,16 @@
         <v>2017</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1920,16 +1920,16 @@
         <v>2016</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1937,16 +1937,16 @@
         <v>2016</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1954,16 +1954,16 @@
         <v>2013</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/CV_Elio.xlsx
+++ b/CV_Elio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
   <si>
     <t>Source</t>
   </si>
@@ -388,15 +388,6 @@
     <t>Ireland</t>
   </si>
   <si>
-    <t>Title: An All-Ireland Geogenic Indoor Radon Map; Award amount: €24,988; duration: 8 months</t>
-  </si>
-  <si>
-    <t>Title: Radon Monitoring and Hazard Prediction in Ireland; Award amount: €91,790; duration: 24 months</t>
-  </si>
-  <si>
-    <t>Duration: 3 years; overall assessment: Interviewed</t>
-  </si>
-  <si>
     <t>Duration: 5 years</t>
   </si>
   <si>
@@ -404,18 +395,6 @@
   </si>
   <si>
     <t>Duration: 1 years</t>
-  </si>
-  <si>
-    <t>XXVI Convocatoria de Becas para Ampliación de Estudios en el Extranjero en Ciencias de la Vida y de la Materia; duration: 1 years</t>
-  </si>
-  <si>
-    <t>EGU General Assembly 2019; award amount: €760; duration: 1 week</t>
-  </si>
-  <si>
-    <t>University of Florence; award amount: €3,000; duration: 3 months</t>
-  </si>
-  <si>
-    <t>Technical University of Madrid; award amount: €67,000; duration: 4 years</t>
   </si>
   <si>
     <t>2016/18</t>
@@ -470,12 +449,6 @@
     </r>
   </si>
   <si>
-    <t>Duration: 3 years; overall assessment:  4 (Good)</t>
-  </si>
-  <si>
-    <t>Duration: 2 years; overall assessment 58.47</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Norwegian Research Council, </t>
     </r>
@@ -519,6 +492,36 @@
   </si>
   <si>
     <t>Research the gas exchange (e.g. CO2, CH4, Rn= betwenn soil and atmosphere.</t>
+  </si>
+  <si>
+    <t>Duration: 4 years, total score 79.40</t>
+  </si>
+  <si>
+    <t>Duration: 3 years, overall assessment:  4 (Good)</t>
+  </si>
+  <si>
+    <t>Title: An All-Ireland Geogenic Indoor Radon Map, Award amount: €24,988, duration: 8 months</t>
+  </si>
+  <si>
+    <t>Title: Radon Monitoring and Hazard Prediction in Ireland, Award amount: €91,790, duration: 24 months</t>
+  </si>
+  <si>
+    <t>Duration: 3 years, overall assessment: Interviewed</t>
+  </si>
+  <si>
+    <t>Duration: 2 years, overall assessment 58.47</t>
+  </si>
+  <si>
+    <t>XXVI Convocatoria de Becas para Ampliación de Estudios en el Extranjero en Ciencias de la Vida y de la Materia, duration: 1 years</t>
+  </si>
+  <si>
+    <t>EGU General Assembly 2019, award amount: €760, duration: 1 week</t>
+  </si>
+  <si>
+    <t>University of Florence, award amount: €3,000, duration: 3 months</t>
+  </si>
+  <si>
+    <t>Technical University of Madrid, award amount: €67,000, duration: 4 years</t>
   </si>
 </sst>
 </file>
@@ -919,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1001,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1071,7 +1074,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>24</v>
@@ -1134,7 +1137,7 @@
         <v>105</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>17</v>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>26</v>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>27</v>
@@ -1282,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,7 +1337,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>62</v>
@@ -1354,7 +1357,7 @@
         <v>82</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>62</v>
@@ -1365,7 +1368,7 @@
         <v>2019</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>91</v>
@@ -1385,7 +1388,7 @@
         <v>2019</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>91</v>
@@ -1414,7 +1417,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>74</v>
@@ -1425,7 +1428,7 @@
         <v>2018</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>91</v>
@@ -1434,7 +1437,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>74</v>
@@ -1445,7 +1448,7 @@
         <v>2017</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>92</v>
@@ -1454,7 +1457,7 @@
         <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>74</v>
@@ -1474,7 +1477,7 @@
         <v>82</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>74</v>
@@ -1494,7 +1497,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>74</v>
@@ -1514,7 +1517,7 @@
         <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>74</v>
@@ -1534,7 +1537,7 @@
         <v>95</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>74</v>
@@ -1554,7 +1557,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>74</v>
@@ -1565,7 +1568,7 @@
         <v>2019</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>91</v>
@@ -1637,7 +1640,7 @@
         <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1654,7 +1657,7 @@
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1671,7 +1674,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1723,7 @@
         <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,7 +1737,7 @@
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1748,7 +1751,7 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
